--- a/docs/CareConnect-CarePlan-1.xlsx
+++ b/docs/CareConnect-CarePlan-1.xlsx
@@ -223,8 +223,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -458,8 +457,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -550,7 +548,7 @@
     <t>CarePlan.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -595,7 +593,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CarePlan-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-CarePlan-1)
 </t>
   </si>
   <si>
@@ -654,8 +652,7 @@
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
   </si>
   <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error] that marks the plan as not currently valid.</t>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.  This element is labeled as a modifier because the status contains the code entered-in-error] that marks the plan as not currently valid.</t>
   </si>
   <si>
     <t>Allows clinicians to determine whether the plan is actionable or not.</t>
@@ -761,7 +758,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -790,7 +787,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-EpisodeOfCare-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-EpisodeOfCare-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -849,7 +846,7 @@
     <t>CarePlan.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CareTeam-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-CareTeam-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1)
 </t>
   </si>
   <si>
@@ -871,7 +868,7 @@
     <t>CarePlan.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CareTeam-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-CareTeam-1)
 </t>
   </si>
   <si>
@@ -893,7 +890,7 @@
     <t>CarePlan.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -982,8 +979,7 @@
 cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}</t>
   </si>
   <si>
-    <t>no mapping
-NOTE: This is a list of contained Request-Event tuples!</t>
+    <t>no mapping NOTE: This is a list of contained Request-Event tuples!</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target</t>
@@ -1085,7 +1081,7 @@
   </si>
   <si>
     <t>string
-Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1)</t>
+Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1)</t>
   </si>
   <si>
     <t>Individual responsible for the annotation</t>
@@ -1137,7 +1133,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|NutritionOrder|Task|ReferralRequest|VisionPrescription|RequestGroup|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ProcedureRequest-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1)
+    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|NutritionOrder|Task|ReferralRequest|VisionPrescription|RequestGroup|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-ProcedureRequest-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-MedicationRequest-1)
 </t>
   </si>
   <si>
@@ -1147,8 +1143,7 @@
     <t>The details of the proposed activity represented in a specific resource.</t>
   </si>
   <si>
-    <t>Standard extension exists ([goal-pertainstogoal](http://hl7.org/fhir/STU3/extension-goal-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  -The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed indepedently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
+    <t>Standard extension exists ([goal-pertainstogoal](http://hl7.org/fhir/STU3/extension-goal-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.   The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed indepedently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
   </si>
   <si>
     <t>Details in a form consistent with other applications and contexts of use.</t>
@@ -1310,8 +1305,7 @@
     <t>Identifies what progress is being made for the specific activity.</t>
   </si>
   <si>
-    <t>Some aspects of status can be inferred based on the resources linked in actionTaken.  Note that "status" is only as current as the plan was most recently updated.  
-The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the activity.</t>
+    <t>Some aspects of status can be inferred based on the resources linked in actionTaken.  Note that "status" is only as current as the plan was most recently updated.   The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the activity.</t>
   </si>
   <si>
     <t>Indicates progress against the plan, whether the activity is still relevant for the plan.</t>
@@ -1391,7 +1385,7 @@
     <t>CarePlan.activity.detail.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Location-1)
 </t>
   </si>
   <si>
@@ -1438,7 +1432,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)</t>
+Reference(Substance|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Medication-1)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1732,7 +1726,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="52.8828125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="60.40234375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="165.94921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="141.35546875" customWidth="true" bestFit="true"/>
